--- a/data/trans_orig/P36B12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B12-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>36162</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26333</v>
+        <v>25846</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49439</v>
+        <v>49222</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0351217848013843</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02557507497290237</v>
+        <v>0.02510214547928383</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04801652867729209</v>
+        <v>0.04780571752744759</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -765,19 +765,19 @@
         <v>45148</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33440</v>
+        <v>33567</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62185</v>
+        <v>59985</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03433024808237847</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02542773783748556</v>
+        <v>0.02552433221275802</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04728478601531639</v>
+        <v>0.04561200632145753</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -786,19 +786,19 @@
         <v>81311</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65152</v>
+        <v>63888</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>99894</v>
+        <v>100103</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03467782958433773</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02778641794251641</v>
+        <v>0.02724718785919569</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04260342541365941</v>
+        <v>0.04269238883167571</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>217078</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>193712</v>
+        <v>192747</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>245825</v>
+        <v>243297</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2108316897018825</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.188137914920577</v>
+        <v>0.1872008122852397</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.23875104361312</v>
+        <v>0.2362964393007685</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>280</v>
@@ -836,19 +836,19 @@
         <v>282849</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>253553</v>
+        <v>251015</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>315865</v>
+        <v>310389</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2150760551791763</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1927997289815898</v>
+        <v>0.1908695678517102</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2401810634820903</v>
+        <v>0.236016603672634</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>500</v>
@@ -857,19 +857,19 @@
         <v>499928</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>463484</v>
+        <v>459667</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>540640</v>
+        <v>540387</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2132122592338477</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1976695047538285</v>
+        <v>0.1960417824535813</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2305757049838303</v>
+        <v>0.2304678227652796</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>524905</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>490433</v>
+        <v>488804</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>557977</v>
+        <v>554868</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5098009388091159</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4763204954303498</v>
+        <v>0.4747384800826212</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5419213042748208</v>
+        <v>0.5389014166880498</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>729</v>
@@ -907,19 +907,19 @@
         <v>737469</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>704111</v>
+        <v>704025</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>772374</v>
+        <v>776785</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5607649714712108</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5353997739027502</v>
+        <v>0.5353339596501454</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5873059235429695</v>
+        <v>0.5906605044607173</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1261</v>
@@ -928,19 +928,19 @@
         <v>1262375</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1218729</v>
+        <v>1216829</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1312374</v>
+        <v>1315350</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5383855232494775</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5197714222422417</v>
+        <v>0.5189611223906863</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5597096554758366</v>
+        <v>0.560978599568246</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>219616</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>191321</v>
+        <v>194716</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>245776</v>
+        <v>246959</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2132959756806816</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1858156448109618</v>
+        <v>0.1891125230908076</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2387034083725289</v>
+        <v>0.2398525519242291</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>220</v>
@@ -978,19 +978,19 @@
         <v>229698</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>202722</v>
+        <v>202265</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>259941</v>
+        <v>260384</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1746603954186116</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1541479009756014</v>
+        <v>0.1538004906294893</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.197657059292904</v>
+        <v>0.1979936087003379</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>437</v>
@@ -999,19 +999,19 @@
         <v>449314</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>412061</v>
+        <v>410693</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>488427</v>
+        <v>487472</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1916261440618642</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1757384630816301</v>
+        <v>0.1751548598476635</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2083074853388309</v>
+        <v>0.2079000251094097</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>31867</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21518</v>
+        <v>21417</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45310</v>
+        <v>44915</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03094961100693559</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02089877778501779</v>
+        <v>0.02080083122966208</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04400597433182685</v>
+        <v>0.043622188660621</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -1049,19 +1049,19 @@
         <v>19948</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12257</v>
+        <v>12644</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30188</v>
+        <v>30019</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01516832984862278</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009320336703940276</v>
+        <v>0.009614107811783226</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02295481731359422</v>
+        <v>0.02282586877520467</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -1070,19 +1070,19 @@
         <v>51815</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37766</v>
+        <v>39010</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>67176</v>
+        <v>68113</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02209824387047287</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01610661298389348</v>
+        <v>0.01663740473379778</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02864963550173406</v>
+        <v>0.02904943344258634</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>32306</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22707</v>
+        <v>22240</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44192</v>
+        <v>44638</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0191058273073338</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01342863547348771</v>
+        <v>0.01315234275726847</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02613509649588291</v>
+        <v>0.026398876890073</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -1195,19 +1195,19 @@
         <v>42222</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30577</v>
+        <v>30724</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55987</v>
+        <v>57142</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02667986973814813</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01932121418495007</v>
+        <v>0.01941407654733222</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03537776230236607</v>
+        <v>0.03610720841695208</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -1216,19 +1216,19 @@
         <v>74529</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60005</v>
+        <v>57146</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92608</v>
+        <v>91428</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02276748188750103</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01833066553256191</v>
+        <v>0.01745721028398812</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02829051859872195</v>
+        <v>0.0279299173876641</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>335547</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>306329</v>
+        <v>304076</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>370423</v>
+        <v>368766</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.19844038123716</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1811608041558337</v>
+        <v>0.1798288353648242</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2190659870501703</v>
+        <v>0.2180857746115883</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -1266,19 +1266,19 @@
         <v>266722</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>240212</v>
+        <v>239092</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>299818</v>
+        <v>296938</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1685389123212795</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1517877539137181</v>
+        <v>0.151079467707428</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1894521053783656</v>
+        <v>0.1876321582905149</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>599</v>
@@ -1287,19 +1287,19 @@
         <v>602269</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>558363</v>
+        <v>559637</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>646732</v>
+        <v>648135</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1839845801758778</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1705719707833999</v>
+        <v>0.1709611396732969</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1975673691678123</v>
+        <v>0.1979960523025455</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>947311</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>903812</v>
+        <v>905209</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>987293</v>
+        <v>984941</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5602337579553477</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5345090013343653</v>
+        <v>0.5353351759026183</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5838787833724456</v>
+        <v>0.5824881095909753</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>952</v>
@@ -1337,19 +1337,19 @@
         <v>970578</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>930112</v>
+        <v>930829</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1008773</v>
+        <v>1008559</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6132980130764402</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5877283362803837</v>
+        <v>0.5881809638195856</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6374332283490716</v>
+        <v>0.6372980215199368</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1880</v>
@@ -1358,19 +1358,19 @@
         <v>1917889</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1862337</v>
+        <v>1858070</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1969873</v>
+        <v>1973866</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5858875583640708</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.568917302115152</v>
+        <v>0.5676136335886218</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6017678261682951</v>
+        <v>0.6029876561466549</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>339865</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>303652</v>
+        <v>310208</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>372373</v>
+        <v>378017</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2009942934966588</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1795780860839836</v>
+        <v>0.1834552762270101</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2202191285122156</v>
+        <v>0.2235566097953578</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>266</v>
@@ -1408,19 +1408,19 @@
         <v>278011</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>249455</v>
+        <v>248359</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>309677</v>
+        <v>308221</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1756724158638441</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1576281690134957</v>
+        <v>0.156935293318293</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1956816550536222</v>
+        <v>0.194761517204407</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>586</v>
@@ -1429,19 +1429,19 @@
         <v>617877</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>572893</v>
+        <v>573454</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>660654</v>
+        <v>667567</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1887524860259999</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1750106298239324</v>
+        <v>0.175181989098023</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2018202549497589</v>
+        <v>0.2039322633005931</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>35891</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25305</v>
+        <v>24618</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49743</v>
+        <v>49575</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0212257400034997</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01496537425200173</v>
+        <v>0.01455918022874928</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02941759857791847</v>
+        <v>0.02931860692456913</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -1479,19 +1479,19 @@
         <v>25021</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15772</v>
+        <v>16172</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36191</v>
+        <v>37021</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01581078900028814</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009966014832957068</v>
+        <v>0.01021862583706755</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02286879606934426</v>
+        <v>0.02339304640721111</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>58</v>
@@ -1500,19 +1500,19 @@
         <v>60912</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>45724</v>
+        <v>46767</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>78854</v>
+        <v>78301</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01860789354655043</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01396796446214129</v>
+        <v>0.01428652809029703</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02408864154102718</v>
+        <v>0.02391975528171103</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>9050</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4391</v>
+        <v>4372</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16298</v>
+        <v>16903</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01641308920542857</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007963764383648011</v>
+        <v>0.007928945389314082</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02955744238249305</v>
+        <v>0.03065372302348785</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1625,19 +1625,19 @@
         <v>16732</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9738</v>
+        <v>9555</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27496</v>
+        <v>27515</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03512185316980396</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02044128227914078</v>
+        <v>0.02005553826645528</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05771394050908068</v>
+        <v>0.05775380722774372</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1646,19 +1646,19 @@
         <v>25783</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16722</v>
+        <v>17090</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37409</v>
+        <v>39615</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02508491556500051</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01626902355705664</v>
+        <v>0.01662760841878941</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0363968163677556</v>
+        <v>0.03854268502898729</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>109318</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>91876</v>
+        <v>90042</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132060</v>
+        <v>129080</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1982516702797073</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1666212481962644</v>
+        <v>0.1632946381672991</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2394965890972349</v>
+        <v>0.2340913388778283</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>68</v>
@@ -1696,19 +1696,19 @@
         <v>69716</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>55587</v>
+        <v>55257</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>86170</v>
+        <v>86771</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1463347728094083</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1166794329148552</v>
+        <v>0.1159851584218177</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1808724272860975</v>
+        <v>0.1821347339003408</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>173</v>
@@ -1717,19 +1717,19 @@
         <v>179033</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>154596</v>
+        <v>156460</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>204332</v>
+        <v>206656</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1741873162236394</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.15041172369557</v>
+        <v>0.1522246491928331</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1988014454237267</v>
+        <v>0.2010622364795727</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>321085</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>294116</v>
+        <v>294070</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>345036</v>
+        <v>344177</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5823007017844957</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5333904435309013</v>
+        <v>0.5333082613511496</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6257363799213003</v>
+        <v>0.6241779215978455</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>286</v>
@@ -1767,19 +1767,19 @@
         <v>300513</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>278415</v>
+        <v>279078</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>321626</v>
+        <v>320073</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6307843301703209</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5843991662520257</v>
+        <v>0.585790267692424</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6751010998288252</v>
+        <v>0.6718397402266927</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>596</v>
@@ -1788,19 +1788,19 @@
         <v>621598</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>590423</v>
+        <v>588910</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>653316</v>
+        <v>656217</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6047736779492749</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5744415430786654</v>
+        <v>0.5729703302945819</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6356322449421997</v>
+        <v>0.6384553499339468</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>103546</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>85504</v>
+        <v>85065</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>122755</v>
+        <v>125929</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1877849974304194</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1550654891721008</v>
+        <v>0.1542689804474366</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2226217466457822</v>
+        <v>0.2283762748986497</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>81</v>
@@ -1838,19 +1838,19 @@
         <v>86421</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>70192</v>
+        <v>69580</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>103804</v>
+        <v>102952</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1813996452096318</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.147335095878552</v>
+        <v>0.1460508931104118</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2178874325995737</v>
+        <v>0.2160993008262559</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>176</v>
@@ -1859,19 +1859,19 @@
         <v>189967</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>163901</v>
+        <v>165073</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>216603</v>
+        <v>219124</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1848252794175771</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1594644336935104</v>
+        <v>0.1606045314779332</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2107397413246973</v>
+        <v>0.2131930676486416</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>8409</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3661</v>
+        <v>3702</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15741</v>
+        <v>16960</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01524954129994914</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006639370818608043</v>
+        <v>0.006713658232442602</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02854642709110362</v>
+        <v>0.03075831912038039</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1909,19 +1909,19 @@
         <v>3030</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8916</v>
+        <v>8095</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006359398640835057</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002074790291438081</v>
+        <v>0.002071855469453818</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01871385665868592</v>
+        <v>0.01699220006692083</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1930,19 +1930,19 @@
         <v>11438</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5688</v>
+        <v>5856</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20031</v>
+        <v>20773</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01112881084450804</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005533597257997394</v>
+        <v>0.005697710906545232</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01948882022693664</v>
+        <v>0.02021043281372301</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>77519</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61008</v>
+        <v>61494</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>95028</v>
+        <v>96805</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0236919769456235</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01864587279510383</v>
+        <v>0.01879411542397564</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0290433006928698</v>
+        <v>0.02958625890199057</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>98</v>
@@ -2055,19 +2055,19 @@
         <v>104103</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>84999</v>
+        <v>84512</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>125814</v>
+        <v>126245</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03085373994820717</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02519161751832346</v>
+        <v>0.02504753692324735</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03728841984493426</v>
+        <v>0.03741606948085847</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>177</v>
@@ -2076,19 +2076,19 @@
         <v>181622</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>157416</v>
+        <v>156696</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>208963</v>
+        <v>208931</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02732788175091255</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02368564001440123</v>
+        <v>0.02357741301614497</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03144174274414107</v>
+        <v>0.03143689946176934</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>661943</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>616473</v>
+        <v>614511</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>710229</v>
+        <v>709841</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.202307908816129</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1884111370768948</v>
+        <v>0.1878115497700158</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2170653599497573</v>
+        <v>0.2169469849294636</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>614</v>
@@ -2126,19 +2126,19 @@
         <v>619287</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>573278</v>
+        <v>574679</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>668899</v>
+        <v>667327</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1835424947623933</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1699064289144005</v>
+        <v>0.1703218139209456</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1982464284783355</v>
+        <v>0.1977803425504246</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1272</v>
@@ -2147,19 +2147,19 @@
         <v>1281230</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1215264</v>
+        <v>1213949</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1342295</v>
+        <v>1342800</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1927810284786197</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1828554967311054</v>
+        <v>0.1826576311395013</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2019692602453758</v>
+        <v>0.2020452778730679</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>1793302</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1737620</v>
+        <v>1733759</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1851974</v>
+        <v>1845770</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5480822640892569</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5310643753720039</v>
+        <v>0.5298843004002329</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5660141878283305</v>
+        <v>0.5641180160030863</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1967</v>
@@ -2197,19 +2197,19 @@
         <v>2008560</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1951434</v>
+        <v>1953998</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2069189</v>
+        <v>2067894</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5952912681968249</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5783603890031304</v>
+        <v>0.5791204815123948</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6132602915328513</v>
+        <v>0.6128766306154354</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3737</v>
@@ -2218,19 +2218,19 @@
         <v>3801861</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3720669</v>
+        <v>3718668</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3885269</v>
+        <v>3881625</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.572049469486265</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5598327910409937</v>
+        <v>0.5595316802633831</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5845993786686804</v>
+        <v>0.584051156339314</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>663027</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>616890</v>
+        <v>616153</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>707849</v>
+        <v>713117</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2026393177177473</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1885385690110961</v>
+        <v>0.1883134257351913</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2163381496449907</v>
+        <v>0.217948150212796</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>567</v>
@@ -2268,19 +2268,19 @@
         <v>594130</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>548109</v>
+        <v>549180</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>639677</v>
+        <v>636997</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1760866319368714</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1624468920314942</v>
+        <v>0.1627642973101889</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1895856753068395</v>
+        <v>0.1887912567094009</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1199</v>
@@ -2289,19 +2289,19 @@
         <v>1257157</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1198314</v>
+        <v>1189050</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1322296</v>
+        <v>1323929</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1891589724746573</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1803051407003721</v>
+        <v>0.1789111661999193</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1989600579139274</v>
+        <v>0.1992057938334786</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>76166</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>59901</v>
+        <v>59695</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>96693</v>
+        <v>95379</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02327853243124331</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01830749678908991</v>
+        <v>0.01824437743757236</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02955194151437991</v>
+        <v>0.02915034301995925</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>46</v>
@@ -2339,19 +2339,19 @@
         <v>47999</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35877</v>
+        <v>35528</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63985</v>
+        <v>62100</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01422586515570323</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0106332146060362</v>
+        <v>0.01052968050133416</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01896369885335674</v>
+        <v>0.01840511851593509</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>117</v>
@@ -2360,19 +2360,19 @@
         <v>124166</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>103719</v>
+        <v>105219</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>148375</v>
+        <v>148864</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01868264780954544</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01560615839486468</v>
+        <v>0.01583178365118193</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02232535321904186</v>
+        <v>0.02239885604600995</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>37662</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26817</v>
+        <v>25893</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52106</v>
+        <v>51549</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03892773450318299</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02771881883707448</v>
+        <v>0.02676296311722266</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05385720401997827</v>
+        <v>0.05328201902994153</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -2724,19 +2724,19 @@
         <v>43842</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31572</v>
+        <v>31663</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59254</v>
+        <v>57796</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03291978264012185</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02370675600302333</v>
+        <v>0.02377508423172242</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04449209513729024</v>
+        <v>0.04339712915007426</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -2745,19 +2745,19 @@
         <v>81504</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64901</v>
+        <v>65540</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>103262</v>
+        <v>102014</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03544779972582112</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02822681773156314</v>
+        <v>0.0285048446640007</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.044911138012178</v>
+        <v>0.04436800947385328</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>219618</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>195492</v>
+        <v>191662</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>246353</v>
+        <v>246732</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2269995728305016</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2020629845495401</v>
+        <v>0.1981041867183148</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2546332293908707</v>
+        <v>0.2550258124977271</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>292</v>
@@ -2795,19 +2795,19 @@
         <v>313856</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>281271</v>
+        <v>281644</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>345627</v>
+        <v>345323</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2356663852892832</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2111986288389664</v>
+        <v>0.2114790976562799</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2595221971230828</v>
+        <v>0.2592938141167149</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>498</v>
@@ -2816,19 +2816,19 @@
         <v>533474</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>493620</v>
+        <v>492120</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>576375</v>
+        <v>575808</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2320195767805366</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.214686480032998</v>
+        <v>0.2140340329357882</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2506784258628234</v>
+        <v>0.2504318293505111</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>531290</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>497916</v>
+        <v>500877</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>561071</v>
+        <v>565912</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5491483769783153</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5146527913282662</v>
+        <v>0.5177131183960716</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5799300183651958</v>
+        <v>0.5849343072165142</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>694</v>
@@ -2866,19 +2866,19 @@
         <v>738408</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>703869</v>
+        <v>702946</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>775946</v>
+        <v>776045</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5544513634053798</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5285168917677381</v>
+        <v>0.5278235565113404</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5826371213097439</v>
+        <v>0.5827117132610173</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1188</v>
@@ -2887,19 +2887,19 @@
         <v>1269698</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1222008</v>
+        <v>1216266</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1318299</v>
+        <v>1317086</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5522199806316137</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5314785584803213</v>
+        <v>0.5289809926342325</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5733572493345501</v>
+        <v>0.5728298842954852</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>159042</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>136442</v>
+        <v>135778</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>183020</v>
+        <v>184449</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1643880486241658</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1410280879762975</v>
+        <v>0.1403415685548021</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1891717189617237</v>
+        <v>0.1906489158921938</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>203</v>
@@ -2937,19 +2937,19 @@
         <v>222044</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>196007</v>
+        <v>194586</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>253689</v>
+        <v>252904</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1667266812683784</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1471764523965608</v>
+        <v>0.1461094759854554</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1904886204334551</v>
+        <v>0.1898993205990133</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>350</v>
@@ -2958,19 +2958,19 @@
         <v>381086</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>344616</v>
+        <v>345281</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>417958</v>
+        <v>417243</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.165742634888431</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1498809266660539</v>
+        <v>0.1501704451975277</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1817789836301859</v>
+        <v>0.1814681582485161</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>19868</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12528</v>
+        <v>12617</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>31159</v>
+        <v>31379</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02053626706383427</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01294948911767142</v>
+        <v>0.01304072394732306</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03220616010059035</v>
+        <v>0.03243365650258262</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -3008,19 +3008,19 @@
         <v>13632</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7317</v>
+        <v>7574</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22131</v>
+        <v>22907</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01023578739683677</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005494180098825855</v>
+        <v>0.005687304769190688</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01661725792755754</v>
+        <v>0.01719989607532876</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>32</v>
@@ -3029,19 +3029,19 @@
         <v>33500</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23534</v>
+        <v>23448</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>46861</v>
+        <v>47530</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01457000797359752</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01023560264559301</v>
+        <v>0.01019790078077771</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02038095913661255</v>
+        <v>0.02067164737248038</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>33813</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22811</v>
+        <v>23050</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47086</v>
+        <v>47828</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01724203189746703</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01163180506634075</v>
+        <v>0.01175355201780305</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02401002503918346</v>
+        <v>0.02438828317584288</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -3154,19 +3154,19 @@
         <v>27795</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17839</v>
+        <v>18086</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39844</v>
+        <v>40110</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01584774356008374</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01017106864632667</v>
+        <v>0.01031187264550497</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02271728535968887</v>
+        <v>0.0228690373211235</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -3175,19 +3175,19 @@
         <v>61609</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46271</v>
+        <v>45245</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78415</v>
+        <v>78732</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01658376844297161</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01245518818771824</v>
+        <v>0.0121790844780707</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02110775908725464</v>
+        <v>0.02119303117146256</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>241130</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>214970</v>
+        <v>215316</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>271678</v>
+        <v>274904</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1229563996249985</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.109617341550085</v>
+        <v>0.1097934030524705</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1385334202853353</v>
+        <v>0.1401787824325201</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>227</v>
@@ -3225,19 +3225,19 @@
         <v>241838</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>208144</v>
+        <v>213807</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>269411</v>
+        <v>271403</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1378853157815279</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1186745517218298</v>
+        <v>0.1219035214699844</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1536060992865748</v>
+        <v>0.154741684728611</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>455</v>
@@ -3246,19 +3246,19 @@
         <v>482968</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>442629</v>
+        <v>442884</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>527376</v>
+        <v>522732</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1300045543413412</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1191463447393032</v>
+        <v>0.1192147920291913</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1419584847550441</v>
+        <v>0.1407082530467315</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>1135900</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1090232</v>
+        <v>1087965</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1180516</v>
+        <v>1181602</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5792164356023848</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5559294938093029</v>
+        <v>0.5547735689010399</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6019669574291223</v>
+        <v>0.6025206782899829</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>944</v>
@@ -3296,19 +3296,19 @@
         <v>1012449</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>968575</v>
+        <v>966562</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1051925</v>
+        <v>1053778</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5772533518457775</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5522384465733698</v>
+        <v>0.5510905085090416</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5997612665727153</v>
+        <v>0.6008173364231872</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2022</v>
@@ -3317,19 +3317,19 @@
         <v>2148349</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2087806</v>
+        <v>2091330</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2211272</v>
+        <v>2210793</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5782896356999246</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.561992875167255</v>
+        <v>0.5629413071945281</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5952271574632999</v>
+        <v>0.5950983694505146</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>507762</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>470199</v>
+        <v>468243</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>549677</v>
+        <v>549775</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2589169858348124</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2397632759812312</v>
+        <v>0.2387655879039403</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2802902037114816</v>
+        <v>0.2803404654135444</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>402</v>
@@ -3367,19 +3367,19 @@
         <v>435456</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>400454</v>
+        <v>398735</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>474888</v>
+        <v>476382</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2482775922700394</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.228321289067653</v>
+        <v>0.2273410396757306</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2707598791812768</v>
+        <v>0.271611651643871</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>878</v>
@@ -3388,19 +3388,19 @@
         <v>943217</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>890779</v>
+        <v>887269</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>999268</v>
+        <v>998287</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2538939760498868</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.239778748365983</v>
+        <v>0.2388338831033786</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2689815389280308</v>
+        <v>0.2687174765407107</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>42493</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30299</v>
+        <v>29792</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56107</v>
+        <v>56921</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02166814704033725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01545002653739289</v>
+        <v>0.01519134077549966</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02861019781577188</v>
+        <v>0.02902529091731419</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>34</v>
@@ -3438,19 +3438,19 @@
         <v>36369</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25314</v>
+        <v>26840</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>49667</v>
+        <v>50230</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02073599654257139</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01443269491108398</v>
+        <v>0.01530315977362519</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02831794284528396</v>
+        <v>0.02863918998590447</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>75</v>
@@ -3459,19 +3459,19 @@
         <v>78862</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>62007</v>
+        <v>62145</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>97349</v>
+        <v>99130</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02122806546587572</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01669086839185779</v>
+        <v>0.01672803895902896</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02620421648107459</v>
+        <v>0.02668358510528546</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>8164</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3065</v>
+        <v>3860</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16583</v>
+        <v>16534</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0169673525491373</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006368794179716523</v>
+        <v>0.008022919747347278</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03446368412281117</v>
+        <v>0.03436106540459115</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -3584,19 +3584,19 @@
         <v>11928</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6647</v>
+        <v>6084</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20890</v>
+        <v>19660</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02600715450334328</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01449306638750862</v>
+        <v>0.01326613081086859</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04554851344792005</v>
+        <v>0.04286739462457067</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -3605,19 +3605,19 @@
         <v>20092</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12836</v>
+        <v>12574</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31526</v>
+        <v>31053</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02137880067376959</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01365846419899281</v>
+        <v>0.01337926006644258</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0335445115311359</v>
+        <v>0.0330415545370973</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>68884</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>54550</v>
+        <v>54102</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>89892</v>
+        <v>87253</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.143155578907627</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1133675385639345</v>
+        <v>0.1124349571031437</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1868161104430812</v>
+        <v>0.1813303051585225</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>66</v>
@@ -3655,19 +3655,19 @@
         <v>75019</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57782</v>
+        <v>59098</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>91273</v>
+        <v>95135</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1635709050736796</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1259871872936099</v>
+        <v>0.1288579819017088</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1990108827015766</v>
+        <v>0.2074325893604704</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>127</v>
@@ -3676,19 +3676,19 @@
         <v>143903</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>123422</v>
+        <v>121690</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>171217</v>
+        <v>168628</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1531183140189959</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1313265034122485</v>
+        <v>0.1294828564564857</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1821815911181747</v>
+        <v>0.1794274003897265</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>276198</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>252922</v>
+        <v>251613</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>298189</v>
+        <v>297569</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5740004052774095</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5256270082803915</v>
+        <v>0.5229073684370665</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6197023623527521</v>
+        <v>0.6184131192149522</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>245</v>
@@ -3726,19 +3726,19 @@
         <v>272851</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>250296</v>
+        <v>250368</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>296240</v>
+        <v>295969</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5949246691681999</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5457458754867015</v>
+        <v>0.5459029057524964</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6459216021431269</v>
+        <v>0.6453307882867881</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>498</v>
@@ -3747,19 +3747,19 @@
         <v>549050</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>513667</v>
+        <v>516810</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>576698</v>
+        <v>581153</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5842115033930481</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5465634044303311</v>
+        <v>0.5499069545634139</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6136310892729359</v>
+        <v>0.6183710264904283</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>126980</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>107049</v>
+        <v>108923</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>149687</v>
+        <v>148931</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2638933733694898</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2224704524519608</v>
+        <v>0.2263651920263929</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3110834346699566</v>
+        <v>0.3095103898885688</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>86</v>
@@ -3797,19 +3797,19 @@
         <v>95836</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>78253</v>
+        <v>78878</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>114986</v>
+        <v>117471</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2089618396450166</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1706236604456844</v>
+        <v>0.1719868170790522</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2507165850295346</v>
+        <v>0.2561335249312819</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>202</v>
@@ -3818,19 +3818,19 @@
         <v>222817</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>198479</v>
+        <v>197757</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>253055</v>
+        <v>250919</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2370866343878626</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2111903901170209</v>
+        <v>0.2104211698916551</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2692607554575985</v>
+        <v>0.2669887372740029</v>
       </c>
     </row>
     <row r="20">
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4854</v>
+        <v>4780</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001983289896336368</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01008706632364101</v>
+        <v>0.009933014219772433</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -3868,19 +3868,19 @@
         <v>2997</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7908</v>
+        <v>8702</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006535431609760745</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00207749116947033</v>
+        <v>0.002089057174007161</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01724185790518972</v>
+        <v>0.01897424476073237</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -3889,19 +3889,19 @@
         <v>3952</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9163</v>
+        <v>9810</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004204747526323825</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001034772056822358</v>
+        <v>0.001035358511639022</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009749866000680469</v>
+        <v>0.01043788410740466</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>79640</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61971</v>
+        <v>62149</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>98728</v>
+        <v>101672</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.023356338865554</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01817447395606362</v>
+        <v>0.01822670619278743</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02895457200710433</v>
+        <v>0.02981806096690746</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>77</v>
@@ -4014,19 +4014,19 @@
         <v>83565</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>64851</v>
+        <v>66175</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>104711</v>
+        <v>103443</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02357719718094118</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01829719235988807</v>
+        <v>0.01867068001330007</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0295433046402704</v>
+        <v>0.02918561126759832</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>149</v>
@@ -4035,19 +4035,19 @@
         <v>163205</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136742</v>
+        <v>136506</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>193798</v>
+        <v>190781</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02346890481268626</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01966351233310842</v>
+        <v>0.01962961419684377</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02786824130452571</v>
+        <v>0.0274343802563894</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>529631</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>486231</v>
+        <v>487988</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>572879</v>
+        <v>572783</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1553279422423747</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1425998652910824</v>
+        <v>0.1431150458361945</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1680114794641061</v>
+        <v>0.1679833565653699</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>585</v>
@@ -4085,19 +4085,19 @@
         <v>630713</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>583318</v>
+        <v>582831</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>678864</v>
+        <v>679562</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1779503449933927</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1645781584927605</v>
+        <v>0.1644407417194732</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1915356610524648</v>
+        <v>0.1917328096712244</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1080</v>
@@ -4106,19 +4106,19 @@
         <v>1160344</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1101914</v>
+        <v>1096967</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1227762</v>
+        <v>1229859</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1668580138523645</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1584557759378221</v>
+        <v>0.1577443903577014</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1765527236189306</v>
+        <v>0.1768543229152781</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>1943389</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1881373</v>
+        <v>1882587</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1999034</v>
+        <v>2002463</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5699488884767306</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5517611432768096</v>
+        <v>0.5521172785439796</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5862683202387012</v>
+        <v>0.5872739650993892</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1883</v>
@@ -4156,19 +4156,19 @@
         <v>2023708</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1966249</v>
+        <v>1962364</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2086164</v>
+        <v>2085581</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5709721289104499</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5547604412359886</v>
+        <v>0.5536643456669769</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5885935783253496</v>
+        <v>0.5884290722499306</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3708</v>
@@ -4177,19 +4177,19 @@
         <v>3967097</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3876540</v>
+        <v>3887111</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4054299</v>
+        <v>4054725</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5704704084763907</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5574482232421772</v>
+        <v>0.5589684404575211</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5830101680540244</v>
+        <v>0.5830714452135505</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>793784</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>743957</v>
+        <v>741955</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>846623</v>
+        <v>845883</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2327977462304625</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2181844395103517</v>
+        <v>0.2175974093665802</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2482940216019343</v>
+        <v>0.2480770804714147</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>691</v>
@@ -4227,19 +4227,19 @@
         <v>753336</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>702222</v>
+        <v>705470</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>800907</v>
+        <v>805300</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2125473346389348</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1981260910198534</v>
+        <v>0.199042445385696</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2259690488188094</v>
+        <v>0.2272086879324596</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1430</v>
@@ -4248,19 +4248,19 @@
         <v>1547120</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1483432</v>
+        <v>1475339</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1622050</v>
+        <v>1615833</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2224766190561364</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2133182930111132</v>
+        <v>0.2121544709813784</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2332515815593882</v>
+        <v>0.2323575105987962</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>63316</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>49977</v>
+        <v>49945</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>80023</v>
+        <v>82552</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01856908418487818</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0146571372227446</v>
+        <v>0.01464778888800444</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02346876812028075</v>
+        <v>0.02421039455597885</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -4298,19 +4298,19 @@
         <v>52998</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39788</v>
+        <v>39199</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>71685</v>
+        <v>69470</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01495299427628141</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01122584229117294</v>
+        <v>0.01105963777526132</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02022540300065268</v>
+        <v>0.01960035260653952</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>111</v>
@@ -4319,19 +4319,19 @@
         <v>116314</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>95853</v>
+        <v>95439</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>136946</v>
+        <v>138839</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01672605380242219</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01378365544556132</v>
+        <v>0.01372422868454982</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01969294130313435</v>
+        <v>0.01996511495592983</v>
       </c>
     </row>
     <row r="27">
@@ -4662,19 +4662,19 @@
         <v>28302</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19595</v>
+        <v>19346</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38874</v>
+        <v>40072</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03765470414434739</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02606992280868121</v>
+        <v>0.02573823691452104</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05171906964190446</v>
+        <v>0.05331363126462375</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -4683,19 +4683,19 @@
         <v>23659</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14991</v>
+        <v>14282</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35352</v>
+        <v>34638</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02391973944814716</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01515625056092668</v>
+        <v>0.01443904329894926</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03574173886450049</v>
+        <v>0.03501987075243292</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -4704,19 +4704,19 @@
         <v>51962</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39136</v>
+        <v>39370</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68110</v>
+        <v>67255</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02985033810709765</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02248253932408664</v>
+        <v>0.02261701706272236</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03912685131448451</v>
+        <v>0.03863604868050555</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>83717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>67370</v>
+        <v>68791</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>101504</v>
+        <v>101356</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1113802291469711</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08963141983411528</v>
+        <v>0.0915224124737065</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1350457823737664</v>
+        <v>0.1348478984043575</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>130</v>
@@ -4754,19 +4754,19 @@
         <v>145527</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>124308</v>
+        <v>124412</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>168793</v>
+        <v>172737</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.147129911101567</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.125677330397034</v>
+        <v>0.1257816684352601</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.170652220972712</v>
+        <v>0.1746394553130636</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>216</v>
@@ -4775,19 +4775,19 @@
         <v>229244</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>200141</v>
+        <v>201120</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>256400</v>
+        <v>259937</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.131693612534561</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1149748848630591</v>
+        <v>0.1155370771613101</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1472937479748741</v>
+        <v>0.1493259295424713</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>406842</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>380100</v>
+        <v>380074</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>433957</v>
+        <v>434308</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.541280077303562</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5057009160563718</v>
+        <v>0.5056664617208934</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5773540337496748</v>
+        <v>0.5778209997742053</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>497</v>
@@ -4825,19 +4825,19 @@
         <v>558950</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>524494</v>
+        <v>522431</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>589480</v>
+        <v>588132</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5651055045979633</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5302704468993921</v>
+        <v>0.5281846171881797</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5959716355917762</v>
+        <v>0.5946091717067006</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>911</v>
@@ -4846,19 +4846,19 @@
         <v>965792</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>920161</v>
+        <v>922564</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1009800</v>
+        <v>1009789</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5548179610704441</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5286043252591556</v>
+        <v>0.5299849596162327</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5800993751930785</v>
+        <v>0.5800930468913091</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>207275</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>183486</v>
+        <v>184253</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>230999</v>
+        <v>232949</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2757672521503863</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2441175805088641</v>
+        <v>0.2451375214354359</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3073310353068792</v>
+        <v>0.3099251342985096</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>218</v>
@@ -4896,19 +4896,19 @@
         <v>239231</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>214506</v>
+        <v>214176</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>269753</v>
+        <v>272199</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.241865555701359</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2168681169617933</v>
+        <v>0.2165344101873013</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2727242795405491</v>
+        <v>0.2751967738196053</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>422</v>
@@ -4917,19 +4917,19 @@
         <v>446506</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>411920</v>
+        <v>408791</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>485912</v>
+        <v>484409</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2565039155329187</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2366355931332388</v>
+        <v>0.234837621457869</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2791412780307705</v>
+        <v>0.2782778352073976</v>
       </c>
     </row>
     <row r="8">
@@ -4946,19 +4946,19 @@
         <v>25494</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16881</v>
+        <v>16968</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37305</v>
+        <v>38703</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03391773725473322</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02245983815163022</v>
+        <v>0.02257516837983193</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04963172428205143</v>
+        <v>0.05149156954857513</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -4967,19 +4967,19 @@
         <v>21740</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13535</v>
+        <v>13654</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>32438</v>
+        <v>33496</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0219792891509636</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01368448952393394</v>
+        <v>0.01380464271800448</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03279474230470401</v>
+        <v>0.03386495672483759</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>46</v>
@@ -4988,19 +4988,19 @@
         <v>47233</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>35004</v>
+        <v>35371</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>61981</v>
+        <v>61248</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02713417275497851</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02010898970664183</v>
+        <v>0.02031929625083979</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03560637641507865</v>
+        <v>0.03518499883842896</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>31215</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20146</v>
+        <v>20677</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43006</v>
+        <v>44471</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01513344467046077</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009766923486978558</v>
+        <v>0.01002459308808272</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02085021745789194</v>
+        <v>0.02156034021818861</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -5113,19 +5113,19 @@
         <v>32708</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21665</v>
+        <v>22500</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45861</v>
+        <v>46191</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01653088474030873</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01094968064895798</v>
+        <v>0.01137154858186483</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02317823661878586</v>
+        <v>0.02334524461807963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -5134,19 +5134,19 @@
         <v>63923</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49698</v>
+        <v>49297</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82288</v>
+        <v>81327</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01581763676406862</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01229768563889268</v>
+        <v>0.0121984423997662</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0203621792988186</v>
+        <v>0.02012439910197681</v>
       </c>
     </row>
     <row r="11">
@@ -5163,19 +5163,19 @@
         <v>250731</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>219656</v>
+        <v>221145</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>280752</v>
+        <v>283674</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1215589869992743</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1064932372834711</v>
+        <v>0.1072149718949811</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.136113545937246</v>
+        <v>0.1375303557765309</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>270</v>
@@ -5184,19 +5184,19 @@
         <v>281242</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>252373</v>
+        <v>253030</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>314740</v>
+        <v>314818</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.142141682364404</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1275512226651052</v>
+        <v>0.1278832142201828</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1590719881138868</v>
+        <v>0.1591111227161665</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>500</v>
@@ -5205,19 +5205,19 @@
         <v>531973</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>490444</v>
+        <v>489566</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>576489</v>
+        <v>577045</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1316363547074243</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1213600217203257</v>
+        <v>0.1211427282939482</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1426517878439721</v>
+        <v>0.1427893731442443</v>
       </c>
     </row>
     <row r="12">
@@ -5234,19 +5234,19 @@
         <v>1219015</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1172241</v>
+        <v>1176076</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1263655</v>
+        <v>1267134</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5909998638409425</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5683234085435745</v>
+        <v>0.5701824198569234</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6126420871763981</v>
+        <v>0.6143287726616153</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1124</v>
@@ -5255,19 +5255,19 @@
         <v>1168771</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1125312</v>
+        <v>1127508</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1212923</v>
+        <v>1211706</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5907046661087713</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5687405105875297</v>
+        <v>0.5698501681489228</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6130197370212997</v>
+        <v>0.6124045138087113</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2277</v>
@@ -5276,19 +5276,19 @@
         <v>2387785</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2328757</v>
+        <v>2325012</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2452517</v>
+        <v>2450400</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5908553338830858</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5762488409969736</v>
+        <v>0.5753222369333071</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6068732008154465</v>
+        <v>0.6063492730230107</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>515410</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>476668</v>
+        <v>474739</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>557592</v>
+        <v>554752</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2498797434489674</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2310970264260799</v>
+        <v>0.2301619520158841</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2703305148694065</v>
+        <v>0.2689533638570073</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>442</v>
@@ -5326,19 +5326,19 @@
         <v>461471</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>421897</v>
+        <v>425047</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>498165</v>
+        <v>502474</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2332304406573458</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.213229618258012</v>
+        <v>0.2148217499256022</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2517761269538176</v>
+        <v>0.2539535692846745</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>927</v>
@@ -5347,19 +5347,19 @@
         <v>976880</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>921211</v>
+        <v>919590</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1032799</v>
+        <v>1027321</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2417281800439263</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2279528903457001</v>
+        <v>0.2275516864777254</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2555651556587035</v>
+        <v>0.254209603389761</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>46261</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33082</v>
+        <v>33667</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60839</v>
+        <v>61655</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02242796104035505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01603875712039381</v>
+        <v>0.01632229145638535</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0294957762926492</v>
+        <v>0.02989131277253296</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -5397,19 +5397,19 @@
         <v>34413</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>24045</v>
+        <v>23990</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>47752</v>
+        <v>48200</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01739232612917019</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01215262826073461</v>
+        <v>0.01212466059280233</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02413417452057725</v>
+        <v>0.02436042044264192</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>77</v>
@@ -5418,19 +5418,19 @@
         <v>80673</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>63985</v>
+        <v>64109</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>100132</v>
+        <v>101305</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01996249460149502</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01583312386419039</v>
+        <v>0.01586382736636698</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02477767655680273</v>
+        <v>0.02506780843130838</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>8982</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4304</v>
+        <v>4298</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17627</v>
+        <v>18072</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01642426046969188</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007870920181566524</v>
+        <v>0.007859332359506119</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03223119506438471</v>
+        <v>0.03304562809199891</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5543,19 +5543,19 @@
         <v>2755</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7434</v>
+        <v>7450</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005046328716491938</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001602879688882108</v>
+        <v>0.001600857347511214</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0136161632516655</v>
+        <v>0.01364539213829907</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -5564,19 +5564,19 @@
         <v>11738</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5867</v>
+        <v>5967</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21264</v>
+        <v>20770</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01073989317611409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005368039465656839</v>
+        <v>0.005459512992152031</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01945691813719735</v>
+        <v>0.01900423163245539</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>66296</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50840</v>
+        <v>51800</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>84033</v>
+        <v>82410</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1212243692562093</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09296360211410254</v>
+        <v>0.09471843411811574</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1536565461212444</v>
+        <v>0.1506895634653323</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>81</v>
@@ -5614,19 +5614,19 @@
         <v>82425</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>65956</v>
+        <v>67001</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>99584</v>
+        <v>101782</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1509610502520174</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1207987289068896</v>
+        <v>0.122711515092364</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1823880651294815</v>
+        <v>0.1864131304594767</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>140</v>
@@ -5635,19 +5635,19 @@
         <v>148721</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>128828</v>
+        <v>128528</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>174334</v>
+        <v>174627</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1360806911729397</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1178786894118481</v>
+        <v>0.1176034732043687</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1595169484840211</v>
+        <v>0.159784381442058</v>
       </c>
     </row>
     <row r="18">
@@ -5664,19 +5664,19 @@
         <v>330453</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>306474</v>
+        <v>304334</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>355933</v>
+        <v>352265</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6042449613628387</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5603985261444295</v>
+        <v>0.5564854960879342</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6508366451890617</v>
+        <v>0.6441287210335785</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>309</v>
@@ -5685,19 +5685,19 @@
         <v>323263</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>302380</v>
+        <v>298539</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>348156</v>
+        <v>346703</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5920531935180959</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5538058973749</v>
+        <v>0.5467716000395135</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6376454290222695</v>
+        <v>0.6349837270519372</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>614</v>
@@ -5706,19 +5706,19 @@
         <v>653716</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>620604</v>
+        <v>618758</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>686131</v>
+        <v>687880</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5981540049490723</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5678560290606847</v>
+        <v>0.5661668728495403</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.627813998596971</v>
+        <v>0.6294143166060469</v>
       </c>
     </row>
     <row r="19">
@@ -5735,19 +5735,19 @@
         <v>132839</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>113184</v>
+        <v>113519</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>155712</v>
+        <v>155025</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2428999676447042</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2069603728525067</v>
+        <v>0.2075732357074323</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2847240888187951</v>
+        <v>0.2834694675701814</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>122</v>
@@ -5756,19 +5756,19 @@
         <v>128231</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>107338</v>
+        <v>109241</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>148073</v>
+        <v>150251</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2348533795766212</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1965892460273179</v>
+        <v>0.2000733402758842</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2711950020415246</v>
+        <v>0.2751837644124236</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>243</v>
@@ -5777,19 +5777,19 @@
         <v>261069</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>232237</v>
+        <v>228776</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>290588</v>
+        <v>290456</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2388799257749469</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.212498427603385</v>
+        <v>0.2093312913238539</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2658897125346698</v>
+        <v>0.2657690594908838</v>
       </c>
     </row>
     <row r="20">
@@ -5806,19 +5806,19 @@
         <v>8316</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3790</v>
+        <v>3663</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15780</v>
+        <v>15684</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01520644126655594</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006929561689064358</v>
+        <v>0.006698313528051003</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02885463237216248</v>
+        <v>0.02867789783823597</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -5827,19 +5827,19 @@
         <v>9329</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4546</v>
+        <v>3955</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19351</v>
+        <v>18505</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01708604793677355</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008326735029602055</v>
+        <v>0.007243088466101498</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03544130708126855</v>
+        <v>0.03389218840059254</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -5848,19 +5848,19 @@
         <v>17645</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10456</v>
+        <v>10261</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27757</v>
+        <v>29076</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01614548492692688</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009566964390463038</v>
+        <v>0.009389245458880199</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02539779507358676</v>
+        <v>0.02660437800785122</v>
       </c>
     </row>
     <row r="21">
@@ -5952,19 +5952,19 @@
         <v>68499</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53851</v>
+        <v>54409</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87430</v>
+        <v>86590</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02037974535734098</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01602164196122948</v>
+        <v>0.01618764240898583</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0260119119408873</v>
+        <v>0.02576212801216254</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>55</v>
@@ -5973,19 +5973,19 @@
         <v>59123</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45147</v>
+        <v>44260</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76894</v>
+        <v>75889</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01682623273415965</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01284885548717848</v>
+        <v>0.01259630380574348</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02188397233177953</v>
+        <v>0.02159791120108219</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>121</v>
@@ -5994,19 +5994,19 @@
         <v>127622</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>105743</v>
+        <v>106866</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>150881</v>
+        <v>151192</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01856355919186939</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01538117151080104</v>
+        <v>0.01554444575691933</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02194670982538225</v>
+        <v>0.02199200996869495</v>
       </c>
     </row>
     <row r="23">
@@ -6023,19 +6023,19 @@
         <v>400744</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>365413</v>
+        <v>364784</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>440064</v>
+        <v>440391</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.119228336336765</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1087167531916593</v>
+        <v>0.1085295437203589</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1309268133159497</v>
+        <v>0.1310239878632155</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>481</v>
@@ -6044,19 +6044,19 @@
         <v>509195</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>469773</v>
+        <v>469088</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>551525</v>
+        <v>558443</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1449163223832862</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.133697112679089</v>
+        <v>0.1335021676157145</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1569636074438356</v>
+        <v>0.1589323979349231</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>856</v>
@@ -6065,19 +6065,19 @@
         <v>909938</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>852909</v>
+        <v>854007</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>968196</v>
+        <v>963417</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1323573638157081</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1240619842696211</v>
+        <v>0.1242216995724856</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1408313049338689</v>
+        <v>0.1401362351030381</v>
       </c>
     </row>
     <row r="24">
@@ -6094,19 +6094,19 @@
         <v>1956310</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1895943</v>
+        <v>1897215</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2014887</v>
+        <v>2010395</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5820364561959376</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.564076230557551</v>
+        <v>0.5644545873598671</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.599464130346124</v>
+        <v>0.5981277467469155</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1930</v>
@@ -6115,19 +6115,19 @@
         <v>2050983</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1996372</v>
+        <v>1988320</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2114758</v>
+        <v>2110812</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5837080777672617</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5681657083817494</v>
+        <v>0.5658742770549364</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6018582709819306</v>
+        <v>0.6007351941226872</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3802</v>
@@ -6136,19 +6136,19 @@
         <v>4007293</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3922993</v>
+        <v>3913294</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4095883</v>
+        <v>4087353</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5828908153311599</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5706286328793631</v>
+        <v>0.5692179091954905</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5957767784210546</v>
+        <v>0.5945360609523599</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>855523</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>806354</v>
+        <v>808528</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>909293</v>
+        <v>911717</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2545331220663953</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2399043060125732</v>
+        <v>0.2405511797232328</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2705305669320787</v>
+        <v>0.2712518581964107</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>782</v>
@@ -6186,19 +6186,19 @@
         <v>828932</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>779667</v>
+        <v>780625</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>883971</v>
+        <v>884345</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2359134085964925</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2218924915437815</v>
+        <v>0.2221653441294957</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2515774599515177</v>
+        <v>0.2516839339520868</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1592</v>
@@ -6207,19 +6207,19 @@
         <v>1684455</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1609626</v>
+        <v>1609005</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1755288</v>
+        <v>1756348</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2450166605830511</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.234132107620888</v>
+        <v>0.2340418905543059</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2553197723642331</v>
+        <v>0.2554739744200842</v>
       </c>
     </row>
     <row r="26">
@@ -6236,19 +6236,19 @@
         <v>80070</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>63558</v>
+        <v>64052</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>99865</v>
+        <v>100219</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02382234004356117</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01890971120609869</v>
+        <v>0.01905654435453475</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02971156905458145</v>
+        <v>0.02981694027512343</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>62</v>
@@ -6257,19 +6257,19 @@
         <v>65481</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>49708</v>
+        <v>50042</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>82115</v>
+        <v>83696</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01863595851879992</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01414683964261315</v>
+        <v>0.01424193956942856</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02336981290690824</v>
+        <v>0.02381970648039677</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>139</v>
@@ -6278,19 +6278,19 @@
         <v>145552</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>122858</v>
+        <v>124656</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>169067</v>
+        <v>174339</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02117160107821146</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01787064224678548</v>
+        <v>0.01813213844835584</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02459208120518449</v>
+        <v>0.02535890053083966</v>
       </c>
     </row>
     <row r="27">
@@ -6621,19 +6621,19 @@
         <v>11204</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6280</v>
+        <v>5973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18880</v>
+        <v>19194</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01936595026365091</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01085592497662429</v>
+        <v>0.0103245685929804</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03263521545012788</v>
+        <v>0.03317698718540474</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -6642,19 +6642,19 @@
         <v>8407</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4789</v>
+        <v>4856</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13045</v>
+        <v>13560</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01022671597310445</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005825515371661909</v>
+        <v>0.005906766464727963</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01586934521974821</v>
+        <v>0.01649572662422985</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -6663,19 +6663,19 @@
         <v>19611</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13393</v>
+        <v>13052</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29004</v>
+        <v>29775</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01400184048094601</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009562671198641168</v>
+        <v>0.009319262746738105</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02070904650297187</v>
+        <v>0.02125953599327953</v>
       </c>
     </row>
     <row r="5">
@@ -6692,19 +6692,19 @@
         <v>46821</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34719</v>
+        <v>36405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60600</v>
+        <v>60851</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08093058679580729</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06001288056363361</v>
+        <v>0.06292766274872189</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1047488350950688</v>
+        <v>0.1051820672556054</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>151</v>
@@ -6713,19 +6713,19 @@
         <v>82436</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71105</v>
+        <v>70565</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>96141</v>
+        <v>95458</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1002823229143018</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08649832478885042</v>
+        <v>0.08584191765362541</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1169540880141056</v>
+        <v>0.1161235358420939</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>212</v>
@@ -6734,19 +6734,19 @@
         <v>129257</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>112238</v>
+        <v>112859</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>148940</v>
+        <v>148027</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.09228874150827754</v>
+        <v>0.09228874150827751</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08013757967913814</v>
+        <v>0.08058070579581439</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1063423548440857</v>
+        <v>0.1056906757531657</v>
       </c>
     </row>
     <row r="6">
@@ -6763,19 +6763,19 @@
         <v>319099</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>296249</v>
+        <v>295830</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>340700</v>
+        <v>340202</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5515697078386677</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5120736318044027</v>
+        <v>0.511347865470455</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5889074051041411</v>
+        <v>0.5880473267746216</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>858</v>
@@ -6784,19 +6784,19 @@
         <v>474553</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>452680</v>
+        <v>453503</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>497003</v>
+        <v>495240</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.577288570632986</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.550680626559054</v>
+        <v>0.5516811605352957</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6045988066863511</v>
+        <v>0.6024539795406353</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1255</v>
@@ -6805,19 +6805,19 @@
         <v>793652</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>763090</v>
+        <v>764421</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>827111</v>
+        <v>826961</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5666649334482958</v>
+        <v>0.5666649334482957</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5448436327273515</v>
+        <v>0.545793946259442</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5905542182634922</v>
+        <v>0.5904475072810726</v>
       </c>
     </row>
     <row r="7">
@@ -6834,19 +6834,19 @@
         <v>178788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>157823</v>
+        <v>157131</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>200843</v>
+        <v>200196</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.309039199300333</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2728009875602608</v>
+        <v>0.2716035701568255</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3471619681330005</v>
+        <v>0.3460431389174206</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>375</v>
@@ -6855,19 +6855,19 @@
         <v>238176</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>216539</v>
+        <v>217376</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>258109</v>
+        <v>257931</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2897381632384184</v>
+        <v>0.2897381632384185</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2634176569230292</v>
+        <v>0.2644354318971822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3139862295934957</v>
+        <v>0.3137703268740707</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>569</v>
@@ -6876,19 +6876,19 @@
         <v>416964</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>387048</v>
+        <v>387152</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>447022</v>
+        <v>445764</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2977108020774771</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2763507463266803</v>
+        <v>0.2764249745172508</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3191719650076534</v>
+        <v>0.3182741352112926</v>
       </c>
     </row>
     <row r="8">
@@ -6905,19 +6905,19 @@
         <v>22617</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15394</v>
+        <v>14791</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33139</v>
+        <v>33087</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03909455580154123</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02660921601194658</v>
+        <v>0.02556695362177897</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05728099441982378</v>
+        <v>0.05719092670767406</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -6926,19 +6926,19 @@
         <v>18466</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12665</v>
+        <v>12161</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26791</v>
+        <v>25714</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02246422724118934</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01540722943272077</v>
+        <v>0.01479421161556783</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03259108531467009</v>
+        <v>0.03128106126306279</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>53</v>
@@ -6947,19 +6947,19 @@
         <v>41084</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>31347</v>
+        <v>32200</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>53688</v>
+        <v>54963</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02933368248500365</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02238190572266738</v>
+        <v>0.0229909648407551</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03833287106614042</v>
+        <v>0.03924364717983589</v>
       </c>
     </row>
     <row r="9">
@@ -7051,19 +7051,19 @@
         <v>19925</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11759</v>
+        <v>11668</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37718</v>
+        <v>35110</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008936484691229719</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005274177353642922</v>
+        <v>0.005233259926051856</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01691689352261234</v>
+        <v>0.01574687792533074</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -7072,19 +7072,19 @@
         <v>29889</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21114</v>
+        <v>20938</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42142</v>
+        <v>42850</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01377182729024107</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009728906003816177</v>
+        <v>0.009647580914415586</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01941799339935886</v>
+        <v>0.01974391894664465</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -7093,19 +7093,19 @@
         <v>49814</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36643</v>
+        <v>37055</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70059</v>
+        <v>68312</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01132153544240908</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008328101984350682</v>
+        <v>0.008421681108768191</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01592277908946171</v>
+        <v>0.0155258430258814</v>
       </c>
     </row>
     <row r="11">
@@ -7122,19 +7122,19 @@
         <v>194170</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>167043</v>
+        <v>166986</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>226261</v>
+        <v>222838</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08708623843567451</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07491972671888789</v>
+        <v>0.07489419273145201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1014788990590587</v>
+        <v>0.09994375342706932</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>331</v>
@@ -7143,19 +7143,19 @@
         <v>216638</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>192564</v>
+        <v>195705</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>241769</v>
+        <v>244293</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09982108817697591</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08872845720760868</v>
+        <v>0.09017568107628712</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.11140042863191</v>
+        <v>0.1125635911096723</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>523</v>
@@ -7164,19 +7164,19 @@
         <v>410809</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>374456</v>
+        <v>373622</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>453620</v>
+        <v>450318</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.09336775051464433</v>
+        <v>0.09336775051464434</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08510552589202489</v>
+        <v>0.08491614200514519</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1030977764370657</v>
+        <v>0.1023473999868821</v>
       </c>
     </row>
     <row r="12">
@@ -7193,19 +7193,19 @@
         <v>1243523</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1192996</v>
+        <v>1194060</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1299033</v>
+        <v>1297401</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5577256921702306</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.535064272684468</v>
+        <v>0.535541417054702</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5826219672448024</v>
+        <v>0.5818902186339011</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1684</v>
@@ -7214,19 +7214,19 @@
         <v>1215994</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1174021</v>
+        <v>1172050</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1259945</v>
+        <v>1257205</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5602970373379028</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5409570340250607</v>
+        <v>0.5400489428490062</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5805486151442872</v>
+        <v>0.5792859835955873</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2828</v>
@@ -7235,19 +7235,19 @@
         <v>2459517</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2389061</v>
+        <v>2388655</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2531953</v>
+        <v>2526081</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.55899401775381</v>
+        <v>0.5589940177538101</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.542981004020611</v>
+        <v>0.5428886246599036</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5754572099756199</v>
+        <v>0.5741225563905636</v>
       </c>
     </row>
     <row r="13">
@@ -7264,19 +7264,19 @@
         <v>687920</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>637640</v>
+        <v>634331</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>741131</v>
+        <v>733415</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3085351190704163</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2859845945033371</v>
+        <v>0.2845005216531171</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3324003695047165</v>
+        <v>0.3289400740169521</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>784</v>
@@ -7285,19 +7285,19 @@
         <v>635112</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>594664</v>
+        <v>593257</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>673542</v>
+        <v>676259</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2926423093065398</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2740049127155936</v>
+        <v>0.2733570046279652</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3103501646433828</v>
+        <v>0.3116018730177336</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1359</v>
@@ -7306,19 +7306,19 @@
         <v>1323031</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1252752</v>
+        <v>1258686</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1386585</v>
+        <v>1391789</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3006959314452345</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2847230728284498</v>
+        <v>0.2860715895456941</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3151402423314653</v>
+        <v>0.3163230234539995</v>
       </c>
     </row>
     <row r="14">
@@ -7335,19 +7335,19 @@
         <v>84094</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64706</v>
+        <v>64863</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>110462</v>
+        <v>109001</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03771646563244901</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02902094241917533</v>
+        <v>0.02909140097148783</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04954283729882369</v>
+        <v>0.04888729677374545</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>82</v>
@@ -7356,19 +7356,19 @@
         <v>72634</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>56374</v>
+        <v>57031</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>91400</v>
+        <v>90899</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03346773788834036</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02597567426352797</v>
+        <v>0.02627812624600062</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04211451001688644</v>
+        <v>0.04188401422349845</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>146</v>
@@ -7377,19 +7377,19 @@
         <v>156728</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>129065</v>
+        <v>129950</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>183862</v>
+        <v>188326</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.03562076484390202</v>
+        <v>0.03562076484390203</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02933372934152488</v>
+        <v>0.02953469098706945</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04178773225904409</v>
+        <v>0.04280231498589347</v>
       </c>
     </row>
     <row r="15">
@@ -7481,19 +7481,19 @@
         <v>8497</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4328</v>
+        <v>4148</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15396</v>
+        <v>15917</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01194066884544641</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006082374478210671</v>
+        <v>0.005829363618087579</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02163665525684914</v>
+        <v>0.0223688627066645</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -7502,19 +7502,19 @@
         <v>5947</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2876</v>
+        <v>2347</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12196</v>
+        <v>12898</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008092089631492104</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003913528793890596</v>
+        <v>0.003194296112546574</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.016596069770855</v>
+        <v>0.01755116719926439</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -7523,19 +7523,19 @@
         <v>14444</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8400</v>
+        <v>8442</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23234</v>
+        <v>23782</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.009985395283134083</v>
+        <v>0.009985395283134081</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005807167060290072</v>
+        <v>0.005836465626423504</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01606274241096264</v>
+        <v>0.01644179117170951</v>
       </c>
     </row>
     <row r="17">
@@ -7552,19 +7552,19 @@
         <v>81626</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>66358</v>
+        <v>64720</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>102328</v>
+        <v>100271</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1147103551386663</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09325297331177509</v>
+        <v>0.09095211999798723</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1438025615024462</v>
+        <v>0.140911469514327</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>135</v>
@@ -7573,19 +7573,19 @@
         <v>92587</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>78242</v>
+        <v>78151</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>109678</v>
+        <v>111136</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1259897715090275</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1064693788002343</v>
+        <v>0.1063457963406167</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1492463422968967</v>
+        <v>0.1512304682211814</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>220</v>
@@ -7594,19 +7594,19 @@
         <v>174213</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>153898</v>
+        <v>151040</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>200842</v>
+        <v>199259</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1204408711034449</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1063956872608902</v>
+        <v>0.1044202954018035</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1388502916957242</v>
+        <v>0.1377558269356013</v>
       </c>
     </row>
     <row r="18">
@@ -7623,19 +7623,19 @@
         <v>358043</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>328184</v>
+        <v>330676</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>387538</v>
+        <v>386081</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5031611142804097</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4611998951563336</v>
+        <v>0.4647017914742071</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5446114361432494</v>
+        <v>0.5425637401778197</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>558</v>
@@ -7644,19 +7644,19 @@
         <v>401234</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>376025</v>
+        <v>377404</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>424942</v>
+        <v>426500</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5459886386975271</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5116843144182938</v>
+        <v>0.5135603008278126</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5782492559685619</v>
+        <v>0.5803695483878558</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>913</v>
@@ -7665,19 +7665,19 @@
         <v>759277</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>721555</v>
+        <v>719834</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>796737</v>
+        <v>797123</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5249196702504805</v>
+        <v>0.5249196702504803</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4988404593087002</v>
+        <v>0.4976508125292945</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.550816912045726</v>
+        <v>0.5510840280043411</v>
       </c>
     </row>
     <row r="19">
@@ -7694,19 +7694,19 @@
         <v>225503</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>197298</v>
+        <v>198635</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>250914</v>
+        <v>252328</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3169015408647239</v>
+        <v>0.3169015408647238</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2772653006034183</v>
+        <v>0.2791430444264166</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3526114046876763</v>
+        <v>0.3545990641067316</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>271</v>
@@ -7715,19 +7715,19 @@
         <v>210748</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>188876</v>
+        <v>187989</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>233225</v>
+        <v>232915</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2867794560019949</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2570174590215339</v>
+        <v>0.255810650972538</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.317366331409924</v>
+        <v>0.3169444579730711</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>477</v>
@@ -7736,19 +7736,19 @@
         <v>436251</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>400912</v>
+        <v>402036</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>471549</v>
+        <v>473428</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3015979930099021</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2771666849531774</v>
+        <v>0.2779440119386802</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3260008731294133</v>
+        <v>0.3273001377479546</v>
       </c>
     </row>
     <row r="20">
@@ -7765,19 +7765,19 @@
         <v>37918</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25369</v>
+        <v>24346</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58633</v>
+        <v>59196</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05328632087075377</v>
+        <v>0.05328632087075376</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03565169269963689</v>
+        <v>0.03421360566771305</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08239728146004052</v>
+        <v>0.08318939946945667</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -7786,19 +7786,19 @@
         <v>24361</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17200</v>
+        <v>16754</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>34252</v>
+        <v>34641</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.0331500441599582</v>
+        <v>0.03315004415995821</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02340490341612656</v>
+        <v>0.02279790417134658</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04660956154370056</v>
+        <v>0.04713861247926619</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>59</v>
@@ -7807,19 +7807,19 @@
         <v>62279</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>46370</v>
+        <v>47145</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>85198</v>
+        <v>83085</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04305607035303858</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03205779900903934</v>
+        <v>0.03259349398338994</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05890109635886776</v>
+        <v>0.05744012162011412</v>
       </c>
     </row>
     <row r="21">
@@ -7911,19 +7911,19 @@
         <v>39626</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26766</v>
+        <v>27754</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54653</v>
+        <v>57757</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01125809685043861</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007604388709506913</v>
+        <v>0.007885127461496942</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01552756905474428</v>
+        <v>0.01640939952585482</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>60</v>
@@ -7932,19 +7932,19 @@
         <v>44242</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33702</v>
+        <v>32813</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>58375</v>
+        <v>58011</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01187008838575685</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009042163439005643</v>
+        <v>0.008803671041625983</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01566200810319344</v>
+        <v>0.0155642782592408</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>99</v>
@@ -7953,19 +7953,19 @@
         <v>83868</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>67003</v>
+        <v>68012</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>106128</v>
+        <v>108332</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01157285130291501</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009245728866519093</v>
+        <v>0.009384905821737451</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01464451899705678</v>
+        <v>0.01494865017647523</v>
       </c>
     </row>
     <row r="23">
@@ -7982,19 +7982,19 @@
         <v>322617</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>286739</v>
+        <v>287795</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>363978</v>
+        <v>362828</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09165921786501222</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08146576393555156</v>
+        <v>0.08176589386369186</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1034103548075388</v>
+        <v>0.1030835512959015</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>617</v>
@@ -8003,19 +8003,19 @@
         <v>391661</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>362638</v>
+        <v>362973</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>426632</v>
+        <v>424455</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1050824160184349</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09729541310246316</v>
+        <v>0.09738539131389594</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1144650305244133</v>
+        <v>0.1138809366340419</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>955</v>
@@ -8024,19 +8024,19 @@
         <v>714279</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>667520</v>
+        <v>668353</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>762451</v>
+        <v>766691</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.09856292672605987</v>
+        <v>0.0985629267260599</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09211071731350823</v>
+        <v>0.09222561649676819</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1052102127080114</v>
+        <v>0.1057952549274399</v>
       </c>
     </row>
     <row r="24">
@@ -8053,19 +8053,19 @@
         <v>1920666</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1856689</v>
+        <v>1854034</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1986093</v>
+        <v>1989558</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5456825409616186</v>
+        <v>0.5456825409616187</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5275061024741237</v>
+        <v>0.5267518724061228</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5642711523558679</v>
+        <v>0.565255552047359</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3100</v>
@@ -8074,19 +8074,19 @@
         <v>2091781</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2041693</v>
+        <v>2037204</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2151670</v>
+        <v>2145057</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.5612234120249463</v>
+        <v>0.5612234120249464</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.547784650528796</v>
+        <v>0.546580319543403</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5772914505350156</v>
+        <v>0.57551733842012</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4996</v>
@@ -8095,19 +8095,19 @@
         <v>4012447</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3924493</v>
+        <v>3928920</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4102050</v>
+        <v>4098373</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.553675393934659</v>
+        <v>0.5536753939346591</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5415386253780976</v>
+        <v>0.5421495421959863</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5660396430909579</v>
+        <v>0.565532250966772</v>
       </c>
     </row>
     <row r="25">
@@ -8124,19 +8124,19 @@
         <v>1092211</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1030293</v>
+        <v>1032463</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1158536</v>
+        <v>1154769</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3103094112964877</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2927178530935555</v>
+        <v>0.2933343632409722</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3291530189685391</v>
+        <v>0.3280828120372554</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1430</v>
@@ -8145,19 +8145,19 @@
         <v>1084035</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1034248</v>
+        <v>1035621</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1128466</v>
+        <v>1132186</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2908458322953635</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2774879532093288</v>
+        <v>0.2778563346155044</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3027665476802752</v>
+        <v>0.3037646902308032</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2405</v>
@@ -8166,19 +8166,19 @@
         <v>2176246</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2092515</v>
+        <v>2099830</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2253558</v>
+        <v>2264018</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3002990634433197</v>
+        <v>0.3002990634433198</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2887450559671559</v>
+        <v>0.2897543798842757</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.310967287694389</v>
+        <v>0.3124106221625879</v>
       </c>
     </row>
     <row r="26">
@@ -8195,19 +8195,19 @@
         <v>144629</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>117794</v>
+        <v>120610</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>173007</v>
+        <v>176287</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04109073302644285</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03346663806077421</v>
+        <v>0.03426677476276821</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04915321065074577</v>
+        <v>0.05008512466503949</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>143</v>
@@ -8216,19 +8216,19 @@
         <v>115462</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>97678</v>
+        <v>96669</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>134800</v>
+        <v>138924</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03097825127549831</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02620681584021532</v>
+        <v>0.02593616845530885</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03616667893965863</v>
+        <v>0.03727323265498615</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>258</v>
@@ -8237,19 +8237,19 @@
         <v>260091</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>229550</v>
+        <v>229355</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>300012</v>
+        <v>296836</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03588976459304626</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0316755383495143</v>
+        <v>0.03164851553392324</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04139854436339985</v>
+        <v>0.04096027376446062</v>
       </c>
     </row>
     <row r="27">
